--- a/biology/Botanique/Diatenopteryx_sorbifolia/Diatenopteryx_sorbifolia.xlsx
+++ b/biology/Botanique/Diatenopteryx_sorbifolia/Diatenopteryx_sorbifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diatenopteryx sorbifolia ou maría preta est un arbre de la famille des Sapindaceae. Il est natif des forêts tropicales du Pérou, du Paraguay, du Brésil, de l'Argentine, de la Bolivie et de la Guyane, dans des zones situées entre 100 et 1 800 mètres d'altitude.
 Il fleurit de septembre à novembre et produit des fruits de novembre à janvier.
@@ -513,7 +525,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Yvyra piu.</t>
         </is>
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>López, J.A; Little, E; Ritz, G; Rombold, J; Hahn, W. 1987. Árboles comunes del Paraguay: (arbres communs du Paraguay), Cuerpo de Paz, 425 pages.</t>
         </is>
